--- a/PCU GUI Idea/Excel Templates/Excel Data/test123.xlsx
+++ b/PCU GUI Idea/Excel Templates/Excel Data/test123.xlsx
@@ -185,7 +185,9 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true" view="normal"/>
+    <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true" view="normal">
+      <selection activeCell="R24" sqref="R24:R24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="false" defaultColWidth="9.28125" defaultRowHeight="15"/>
   <sheetData>

--- a/PCU GUI Idea/Excel Templates/Excel Data/test123.xlsx
+++ b/PCU GUI Idea/Excel Templates/Excel Data/test123.xlsx
@@ -5,14 +5,24 @@
     <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId1"/>
+    <sheet sheetId="1" name="04-03-2025 14-11" state="visible" r:id="rId1"/>
     <sheet sheetId="2" name="License" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+  <si>
+    <t>3D Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Frequency_x000D_
+Current</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
   <si>
     <t>This document was generated by a trial version of Telerik Document Processing.</t>
   </si>
@@ -22,7 +32,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <b val="false"/>
       <i val="false"/>
@@ -37,43 +47,276 @@
       <i val="false"/>
       <u val="none"/>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="false"/>
+      <i val="false"/>
+      <u val="none"/>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
+      <name val="Franklin Gothic Demi"/>
+    </font>
+    <font>
+      <b val="false"/>
+      <i val="false"/>
+      <u val="none"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Demi"/>
+    </font>
+    <font>
+      <b val="false"/>
+      <i val="false"/>
+      <u val="none"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
       <bottom style="none"/>
     </border>
+    <border diagonalDown="true">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="false" applyFont="true" applyFill="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="1" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="false" applyFont="true" applyFill="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf fontId="2" fillId="2" xfId="1" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" borderId="9" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" borderId="11" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" borderId="15" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="4" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -125,7 +368,7 @@
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -183,20 +426,743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true" view="normal">
-      <selection activeCell="R24" sqref="R24:R24"/>
-    </sheetView>
+    <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true" view="normal"/>
   </sheetViews>
   <sheetFormatPr customHeight="false" defaultColWidth="9.28125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="false" customWidth="true" width="15.28125" hidden="false" outlineLevel="0"/>
+  </cols>
   <sheetData>
+    <row r="2" ht="21" customHeight="true">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" ht="21" customHeight="true">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <v>150</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <v>200</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>250</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="H5" s="12" t="n">
+        <v>350</v>
+      </c>
+      <c r="I5" s="12" t="n">
+        <v>400</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>450</v>
+      </c>
+      <c r="K5" s="16" t="n">
+        <v>500</v>
+      </c>
+    </row>
     <row r="6">
-      <c r="C6" t="n">
+      <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="C6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" s="18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" s="18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" s="18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" s="18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9</v>
+      </c>
+      <c r="K14" s="18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" s="18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>11</v>
+      </c>
+      <c r="K16" s="18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12</v>
+      </c>
+      <c r="K17" s="18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13</v>
+      </c>
+      <c r="K18" s="18" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14</v>
+      </c>
+      <c r="E19" t="n">
+        <v>14</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14</v>
+      </c>
+      <c r="H19" t="n">
+        <v>14</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14</v>
+      </c>
+      <c r="K19" s="18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>15</v>
+      </c>
+      <c r="K20" s="18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16</v>
+      </c>
+      <c r="G21" t="n">
+        <v>16</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16</v>
+      </c>
+      <c r="I21" t="n">
+        <v>16</v>
+      </c>
+      <c r="J21" t="n">
+        <v>16</v>
+      </c>
+      <c r="K21" s="18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17</v>
+      </c>
+      <c r="G22" t="n">
+        <v>17</v>
+      </c>
+      <c r="H22" t="n">
+        <v>17</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17</v>
+      </c>
+      <c r="J22" t="n">
+        <v>17</v>
+      </c>
+      <c r="K22" s="18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18</v>
+      </c>
+      <c r="E23" t="n">
+        <v>18</v>
+      </c>
+      <c r="F23" t="n">
+        <v>18</v>
+      </c>
+      <c r="G23" t="n">
+        <v>18</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18</v>
+      </c>
+      <c r="J23" t="n">
+        <v>18</v>
+      </c>
+      <c r="K23" s="18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="D24" t="n">
+        <v>19</v>
+      </c>
+      <c r="E24" t="n">
+        <v>19</v>
+      </c>
+      <c r="F24" t="n">
+        <v>19</v>
+      </c>
+      <c r="G24" t="n">
+        <v>19</v>
+      </c>
+      <c r="H24" t="n">
+        <v>19</v>
+      </c>
+      <c r="I24" t="n">
+        <v>19</v>
+      </c>
+      <c r="J24" t="n">
+        <v>19</v>
+      </c>
+      <c r="K24" s="18" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="G25" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="H25" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="I25" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="J25" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="K25" s="19" t="n">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K5" pivot="false">
+    <cfRule priority="0" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF87CEEB"/>
+        <color rgb="FF6A5ACD"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B25" pivot="false">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFFA500"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:K25" pivot="false">
+    <cfRule priority="2" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo val="50" type="percentile"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF4500"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF008000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -210,8 +1176,8 @@
   <sheetFormatPr customHeight="false" defaultColWidth="9.28125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="20" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
